--- a/pred_ohlcv/54_21/2019-11-02 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1584361.877</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1584361.877</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1584361.877</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1372658.877</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1150256.877</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1257330.9423</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1257196.9423</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1257156.9423</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1196158.3164</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1096146.0978</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1411146.8265</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1518438.055</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1588503.1971</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1568209.9136</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1499513.031</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1565501.3295</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1565501.3295</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1559526.5199</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1559526.5199</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1639405.2985</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2303502.9322</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2303502.9322</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2303502.9322</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2294400.8785</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2291849.6244</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2150472.5678</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2146419.9556</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>16166997.6032</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>16433333.28617045</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>16433333.28617045</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>16433458.61027045</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>16376355.27007045</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>16387476.08347045</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>16204188.41697045</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>16209443.74097045</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>16210443.74097045</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>16149033.79747045</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>16142033.79747045</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>16145033.79747045</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>16452944.05177045</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>16446407.99977045</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>16444407.99977045</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>16444407.99977045</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>16497609.40367045</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>16494873.40367045</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>16554248.40377045</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>16554248.40377045</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>16556248.40377045</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>16571210.90377045</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>16594136.55507045</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>16631418.34267045</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>17119568.34267045</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>17590920.09507044</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>17590920.09507044</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>17590931.09507044</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>17589820.09507044</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>17614911.52427045</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>17607782.56507045</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>17607793.56507045</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>17600818.23737045</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>17600829.23737045</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>17600217.23737045</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>17600217.23737045</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>17598228.23737045</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>17598228.23737045</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>17125302.52057045</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>17152617.10857045</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>17161355.13807045</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>17145319.61317044</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1584361.877</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1584361.877</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1584361.877</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1372658.877</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1150256.877</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1257330.9423</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1257196.9423</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1257186.9423</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1257156.9423</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1257156.9423</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1196158.3164</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1096146.0978</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1411146.8265</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1411146.8265</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1518438.055</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1588503.1971</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1568209.9136</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1499513.031</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1565501.3295</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1565501.3295</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1559526.5199</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1559526.5199</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1639405.2985</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2303502.9322</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2303502.9322</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2303502.9322</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2294400.8785</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2291849.6244</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2150472.5678</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2146419.9556</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>16166997.6032</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>16433333.28617045</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>16433333.28617045</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>16433458.61027045</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>16376355.27007045</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>16387476.08347045</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>16204188.41697045</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>16209443.74097045</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>16210443.74097045</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>16149033.79747045</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>16142033.79747045</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>16145033.79747045</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>16452944.05177045</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>16446407.99977045</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>16444407.99977045</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>16444407.99977045</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>16497609.40367045</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>16494873.40367045</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>16554248.40377045</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>16554248.40377045</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>16556248.40377045</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>16571210.90377045</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>16594136.55507045</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>16631418.34267045</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>17119568.34267045</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>17590920.09507044</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>17590920.09507044</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>17590931.09507044</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>17589820.09507044</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>17614911.52427045</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>17607782.56507045</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>17607793.56507045</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>17600818.23737045</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>17600829.23737045</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>17600217.23737045</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>17600217.23737045</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>17598228.23737045</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>17125302.52057045</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>17161355.13807045</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>17145319.61317044</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
